--- a/WorkBot/refactor/data/orders/Keck's Food Service/Keck's Food Service_Bakery_2025-09-28.xlsx
+++ b/WorkBot/refactor/data/orders/Keck's Food Service/Keck's Food Service_Bakery_2025-09-28.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,114 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>126160</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Peanut Butter - Bulk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>141350</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Molasses</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>124440</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8 Grain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>205.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>108970</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Garlic - Dry Minced</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>155.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>155.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
